--- a/experiment/output/results/PACS/RSC/DG/3.xlsx
+++ b/experiment/output/results/PACS/RSC/DG/3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,23 +488,23 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>250131_12-11-29_resnet50_EVE</t>
+          <t>250207_16-39-26_resnet50_GENIE</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>80.34399999999999</v>
+        <v>83.461</v>
       </c>
       <c r="E2" t="n">
-        <v>80.34399999999999</v>
+        <v>83.461</v>
       </c>
       <c r="F2" t="n">
-        <v>79.294</v>
+        <v>83.461</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -520,17 +520,23 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>250206_19-07-41_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
+          <t>250210_15-20-59_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>74.523</v>
+      </c>
+      <c r="E3" t="n">
+        <v>67.71599999999999</v>
+      </c>
+      <c r="F3" t="n">
+        <v>71.628</v>
+      </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -546,389 +552,23 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>250206_16-09-45_resnet50_GENIE</t>
+          <t>250210_15-59-23_resnet50_GENIE</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>74.04600000000001</v>
+        <v>81.96599999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>68.22499999999999</v>
+        <v>79.23</v>
       </c>
       <c r="F4" t="n">
-        <v>58.906</v>
+        <v>76.36799999999999</v>
       </c>
       <c r="G4" t="n">
         <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>RSC</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>250206_17-45-06_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>82.85599999999999</v>
-      </c>
-      <c r="E5" t="n">
-        <v>79.389</v>
-      </c>
-      <c r="F5" t="n">
-        <v>82.093</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>RSC</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>250206_16-11-01_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="n">
-        <v>2</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>RSC</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>250206_17-56-58_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>80.375</v>
-      </c>
-      <c r="E7" t="n">
-        <v>80.43899999999999</v>
-      </c>
-      <c r="F7" t="n">
-        <v>78.499</v>
-      </c>
-      <c r="G7" t="n">
-        <v>2</v>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>RSC</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>250206_16-11-09_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="n">
-        <v>2</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>RSC</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>250206_18-33-59_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>74.809</v>
-      </c>
-      <c r="E9" t="n">
-        <v>75.95399999999999</v>
-      </c>
-      <c r="F9" t="n">
-        <v>71.215</v>
-      </c>
-      <c r="G9" t="n">
-        <v>2</v>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>RSC</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>250206_16-08-38_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>77.354</v>
-      </c>
-      <c r="E10" t="n">
-        <v>63.836</v>
-      </c>
-      <c r="F10" t="n">
-        <v>63.836</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>RSC</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>250206_18-19-14_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>80.15300000000001</v>
-      </c>
-      <c r="E11" t="n">
-        <v>79.70699999999999</v>
-      </c>
-      <c r="F11" t="n">
-        <v>80.089</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>RSC</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>250206_16-51-56_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>81.425</v>
-      </c>
-      <c r="E12" t="n">
-        <v>72.61499999999999</v>
-      </c>
-      <c r="F12" t="n">
-        <v>71.851</v>
-      </c>
-      <c r="G12" t="n">
-        <v>2</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>RSC</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>250206_17-13-36_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>81.711</v>
-      </c>
-      <c r="E13" t="n">
-        <v>72.678</v>
-      </c>
-      <c r="F13" t="n">
-        <v>72.678</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>RSC</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>250206_16-40-46_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>79.19799999999999</v>
-      </c>
-      <c r="E14" t="n">
-        <v>62.087</v>
-      </c>
-      <c r="F14" t="n">
-        <v>77.735</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
         <v>12</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>RSC</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>250206_17-25-27_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>80.34399999999999</v>
-      </c>
-      <c r="E15" t="n">
-        <v>73.53700000000001</v>
-      </c>
-      <c r="F15" t="n">
-        <v>72.742</v>
-      </c>
-      <c r="G15" t="n">
-        <v>2</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>RSC</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>250206_18-53-33_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/experiment/output/results/PACS/RSC/DG/3.xlsx
+++ b/experiment/output/results/PACS/RSC/DG/3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,70 +507,6 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>RSC</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>250210_15-20-59_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>74.523</v>
-      </c>
-      <c r="E3" t="n">
-        <v>67.71599999999999</v>
-      </c>
-      <c r="F3" t="n">
-        <v>71.628</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>RSC</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>250210_15-59-23_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>81.96599999999999</v>
-      </c>
-      <c r="E4" t="n">
-        <v>79.23</v>
-      </c>
-      <c r="F4" t="n">
-        <v>76.36799999999999</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H4" t="n">
-        <v>12</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
